--- a/results/FrequencyTables/26796669_gGag2.xlsx
+++ b/results/FrequencyTables/26796669_gGag2.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.18</v>
+        <v>0.209860093271153</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.120586275816123</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0201532311792139</v>
       </c>
       <c r="E2">
-        <v>0.96</v>
+        <v>0.716688874083944</v>
       </c>
       <c r="F2">
-        <v>0.01</v>
+        <v>0.163724183877415</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.06545636242505</v>
       </c>
       <c r="H2">
-        <v>0.88</v>
+        <v>0.841938707528314</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00116588940706196</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.963857428381079</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.950532978014657</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.000499666888740839</v>
       </c>
       <c r="M2">
-        <v>0.01</v>
+        <v>0.00266489007328448</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.985676215856096</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00916055962691539</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.98</v>
+        <v>0.997834776815456</v>
       </c>
       <c r="S2">
-        <v>0.22</v>
+        <v>0.117754830113258</v>
       </c>
       <c r="T2">
-        <v>0.97</v>
+        <v>0.992838107928048</v>
       </c>
       <c r="U2">
-        <v>0.78</v>
+        <v>0.38124583610926</v>
       </c>
       <c r="V2">
-        <v>0.88</v>
+        <v>0.889240506329114</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0564623584277149</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0389740173217855</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.122251832111925</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.851598934043971</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0709526982011992</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.044636908727515</v>
       </c>
       <c r="F3">
-        <v>0.99</v>
+        <v>0.797301798800799</v>
       </c>
       <c r="G3">
-        <v>0.99</v>
+        <v>0.869420386409061</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00016655562958028</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0541305796135909</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00582944703530979</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.00316455696202532</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.0438041305796136</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0326449033977348</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00016655562958028</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00016655562958028</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000499666888740839</v>
       </c>
       <c r="Q3">
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00016655562958028</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.00283144570286476</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0016655562958028</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0024983344437042</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00233177881412392</v>
       </c>
       <c r="X3">
-        <v>0.02</v>
+        <v>0.00216522318454364</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.78</v>
+        <v>0.626915389740173</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0153231179213857</v>
       </c>
       <c r="D4">
-        <v>0.01</v>
+        <v>0.00199866755496336</v>
       </c>
       <c r="E4">
-        <v>0.04</v>
+        <v>0.209860093271153</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0146568954030646</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00832778147901399</v>
       </c>
       <c r="H4">
-        <v>0.12</v>
+        <v>0.146568954030646</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0259826782145237</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.0436375749500333</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000999333777481679</v>
       </c>
       <c r="M4">
-        <v>0.99</v>
+        <v>0.957361758827448</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00516322451698867</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.989173884077282</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.02</v>
+        <v>0.000999333777481679</v>
       </c>
       <c r="S4">
-        <v>0.78</v>
+        <v>0.878247834776815</v>
       </c>
       <c r="T4">
-        <v>0.03</v>
+        <v>0.00366422385076616</v>
       </c>
       <c r="U4">
-        <v>0.22</v>
+        <v>0.564790139906729</v>
       </c>
       <c r="V4">
-        <v>0.12</v>
+        <v>0.101598934043971</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.895736175882745</v>
       </c>
       <c r="X4">
-        <v>0.98</v>
+        <v>0.914890073284477</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,55 +687,55 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.04</v>
+        <v>0.0269820119920053</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00766155896069287</v>
       </c>
       <c r="D5">
-        <v>0.99</v>
+        <v>0.898401065956029</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0144903397734843</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0174883411059294</v>
       </c>
       <c r="G5">
-        <v>0.01</v>
+        <v>0.048800799467022</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00183211192538308</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.943537641572285</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000832778147901399</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00199866755496336</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.954696868754164</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.00582944703530979</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.00849433710859427</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.99983344437042</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00016655562958028</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000999333777481679</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.0433044636908727</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.00133244503664224</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0431379080612925</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.043471019320453</v>
       </c>
     </row>
   </sheetData>
